--- a/full_anno/all_anno/OUTPUTEVENTS_anno.xlsx
+++ b/full_anno/all_anno/OUTPUTEVENTS_anno.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CTA_CEA" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA_short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA_long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
   <si>
     <t>column</t>
   </si>
@@ -64,6 +66,9 @@
     <t>CTA</t>
   </si>
   <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#AssessmentEvent</t>
+  </si>
+  <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#SubjectPseudoIdentifier</t>
   </si>
   <si>
@@ -82,7 +87,7 @@
     <t>https://www.w3.org/2001/XMLSchema#double</t>
   </si>
   <si>
-    <t>https://build.fhir.org/valueset-ucum-units.xml</t>
+    <t>https://ucum.org/ucum</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#Performer</t>
@@ -100,16 +105,7 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=118522005&amp;edition=MAIN/2024-06-01&amp;release=&amp;languages=en</t>
-  </si>
-  <si>
-    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=125676002&amp;edition=MAIN/2024-06-01&amp;release=&amp;languages=en</t>
-  </si>
-  <si>
     <t>2165-12-20 08:00:00</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2001/XMLSchema#dateTime</t>
   </si>
   <si>
     <t>mL</t>
@@ -226,7 +222,7 @@
     <t>2165-12-20 05:24:00</t>
   </si>
   <si>
-    <t>CPA</t>
+    <t>table</t>
   </si>
   <si>
     <t>source</t>
@@ -235,19 +231,16 @@
     <t>target</t>
   </si>
   <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#AssessmentEvent</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>OUTPUTEVENTS</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasIdentifier</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasCareHandling</t>
-  </si>
-  <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#Assessment</t>
-  </si>
-  <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasAssessment</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasEventDateTime</t>
@@ -274,23 +267,29 @@
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasDateTime</t>
   </si>
   <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasValue</t>
+  </si>
+  <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasUnit</t>
+  </si>
+  <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#Assessment</t>
+  </si>
+  <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasAssessment</t>
+  </si>
+  <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#Quantity</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasQuantity</t>
-  </si>
-  <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasValue</t>
-  </si>
-  <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasUnit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -311,6 +310,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -369,13 +373,14 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
@@ -384,10 +389,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <sz val="9.0"/>
       <color rgb="FF0000FF"/>
-      <name val="&quot;Google Sans&quot;"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -398,6 +406,11 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -452,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -471,71 +484,86 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -543,26 +571,29 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,6 +604,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -780,10 +819,24 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.25"/>
-    <col customWidth="1" min="3" max="3" width="29.38"/>
-    <col customWidth="1" min="10" max="10" width="21.13"/>
-    <col customWidth="1" min="11" max="11" width="11.88"/>
+    <col customWidth="1" min="2" max="2" width="49.75"/>
+    <col customWidth="1" min="3" max="3" width="4.38"/>
+    <col customWidth="1" min="4" max="4" width="59.25"/>
+    <col customWidth="1" min="5" max="5" width="3.25"/>
+    <col customWidth="1" min="6" max="6" width="50.75"/>
+    <col customWidth="1" min="7" max="7" width="4.38"/>
+    <col customWidth="1" min="8" max="8" width="51.13"/>
+    <col customWidth="1" min="9" max="9" width="2.38"/>
+    <col customWidth="1" min="10" max="10" width="103.25"/>
+    <col customWidth="1" min="11" max="11" width="3.88"/>
+    <col customWidth="1" min="12" max="12" width="55.13"/>
+    <col customWidth="1" min="13" max="13" width="4.13"/>
+    <col customWidth="1" min="14" max="14" width="38.5"/>
+    <col customWidth="1" min="15" max="15" width="5.75"/>
+    <col customWidth="1" min="16" max="16" width="19.13"/>
+    <col customWidth="1" min="18" max="18" width="103.25"/>
+    <col customWidth="1" min="19" max="19" width="5.75"/>
+    <col customWidth="1" min="20" max="20" width="48.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -874,60 +927,62 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="9" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="10" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="11" t="s">
-        <v>26</v>
+      <c r="Z2" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="11" t="s">
-        <v>27</v>
+      <c r="AB2" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="11" t="s">
-        <v>27</v>
+      <c r="AD2" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="4"/>
@@ -951,37 +1006,37 @@
       <c r="AX2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="6"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="7"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="19"/>
+      <c r="AC3" s="20"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="19"/>
+      <c r="AE3" s="20"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -1003,87 +1058,63 @@
       <c r="AX3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>28</v>
+      <c r="A4" s="21" t="s">
+        <v>29</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>2952706.0</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="7">
+        <v>114867.0</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="7">
+        <v>241992.0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
-        <v>114867.0</v>
+      <c r="K4" s="19"/>
+      <c r="L4" s="7">
+        <v>226559.0</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
+      <c r="M4" s="15"/>
+      <c r="N4" s="7">
+        <v>300.0</v>
       </c>
-      <c r="H4" s="6">
-        <v>241992.0</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="6">
-        <v>226559.0</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="6">
-        <v>300.0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="S4" s="17"/>
+      <c r="T4" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="21"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC4" s="11" t="s">
-        <v>27</v>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE4" s="20"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -1105,67 +1136,47 @@
       <c r="AX4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23">
         <v>2952707.0</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="15"/>
+      <c r="D5" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="17"/>
+      <c r="F5" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="18"/>
+      <c r="H5" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>29</v>
+      <c r="I5" s="15"/>
+      <c r="J5" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="K5" s="19"/>
+      <c r="L5" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="15"/>
+      <c r="N5" s="7">
         <v>105.0</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
+      <c r="O5" s="19"/>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>33</v>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="S5" s="17"/>
+      <c r="T5" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U5" s="19"/>
       <c r="V5" s="2"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1173,17 +1184,13 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC5" s="11" t="s">
-        <v>27</v>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE5" s="20"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -1205,85 +1212,61 @@
       <c r="AX5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14">
         <v>2952708.0</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" s="15"/>
+      <c r="D6" s="24">
         <v>42412.0</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="17"/>
+      <c r="F6" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="18"/>
+      <c r="H6" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>29</v>
+      <c r="I6" s="15"/>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="19"/>
+      <c r="L6" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="15"/>
+      <c r="N6" s="7">
         <v>135.0</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>22</v>
+      <c r="O6" s="19"/>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>33</v>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="S6" s="17"/>
+      <c r="T6" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="21"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC6" s="11" t="s">
-        <v>27</v>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE6" s="20"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -1305,67 +1288,47 @@
       <c r="AX6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14">
         <v>2952709.0</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="15"/>
+      <c r="D7" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="17"/>
+      <c r="F7" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="18"/>
+      <c r="H7" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>29</v>
+      <c r="I7" s="15"/>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7" s="19"/>
+      <c r="L7" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="15"/>
+      <c r="N7" s="7">
         <v>265.0</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
+      <c r="O7" s="19"/>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>33</v>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="S7" s="17"/>
+      <c r="T7" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U7" s="19"/>
       <c r="V7" s="2"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1373,17 +1336,13 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC7" s="11" t="s">
-        <v>27</v>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE7" s="20"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -1405,85 +1364,61 @@
       <c r="AX7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14">
         <v>2952710.0</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" s="15"/>
+      <c r="D8" s="24">
         <v>42412.0</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="17"/>
+      <c r="F8" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="18"/>
+      <c r="H8" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>29</v>
+      <c r="I8" s="15"/>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="19"/>
+      <c r="L8" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M8" s="15"/>
+      <c r="N8" s="7">
         <v>175.0</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>22</v>
+      <c r="O8" s="19"/>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>33</v>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="7" t="s">
+        <v>40</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="S8" s="17"/>
+      <c r="T8" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="21"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC8" s="11" t="s">
-        <v>27</v>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -1505,67 +1440,47 @@
       <c r="AX8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22">
+      <c r="A9" s="14"/>
+      <c r="B9" s="23">
         <v>2952711.0</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="15"/>
+      <c r="D9" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="17"/>
+      <c r="F9" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="18"/>
+      <c r="H9" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>29</v>
+      <c r="I9" s="15"/>
+      <c r="J9" s="7" t="s">
+        <v>41</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="19"/>
+      <c r="L9" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9" s="15"/>
+      <c r="N9" s="7">
         <v>190.0</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>22</v>
+      <c r="O9" s="19"/>
+      <c r="P9" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>33</v>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="S9" s="17"/>
+      <c r="T9" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U9" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U9" s="19"/>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1573,17 +1488,13 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC9" s="11" t="s">
-        <v>27</v>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE9" s="20"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
@@ -1605,85 +1516,61 @@
       <c r="AX9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2">
         <v>2952712.0</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="15"/>
+      <c r="D10" s="24">
         <v>42412.0</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="17"/>
+      <c r="F10" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="18"/>
+      <c r="H10" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>29</v>
+      <c r="I10" s="15"/>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="19"/>
+      <c r="L10" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="M10" s="15"/>
+      <c r="N10" s="7">
         <v>160.0</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>22</v>
+      <c r="O10" s="19"/>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>33</v>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="S10" s="17"/>
+      <c r="T10" s="7">
         <v>16248.0</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="21"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>27</v>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="3" t="s">
+        <v>45</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE10" s="20"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
@@ -1705,67 +1592,47 @@
       <c r="AX10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2">
         <v>2952713.0</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="15"/>
+      <c r="D11" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="17"/>
+      <c r="F11" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="18"/>
+      <c r="H11" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>29</v>
+      <c r="I11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11" s="19"/>
+      <c r="L11" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="15"/>
+      <c r="N11" s="7">
         <v>35.0</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>22</v>
+      <c r="O11" s="19"/>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>33</v>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="7" t="s">
+        <v>46</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="S11" s="17"/>
+      <c r="T11" s="7">
         <v>18462.0</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U11" s="19"/>
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1773,17 +1640,13 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>27</v>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE11" s="20"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -1805,85 +1668,61 @@
       <c r="AX11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14">
         <v>2952714.0</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="C12" s="15"/>
+      <c r="D12" s="24">
         <v>42412.0</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="17"/>
+      <c r="F12" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="18"/>
+      <c r="H12" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>29</v>
+      <c r="I12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>47</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="19"/>
+      <c r="L12" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7">
         <v>20.0</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>22</v>
+      <c r="O12" s="19"/>
+      <c r="P12" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>33</v>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="7" t="s">
+        <v>47</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="17"/>
+      <c r="T12" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12" s="21"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC12" s="11" t="s">
-        <v>27</v>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE12" s="20"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -1909,63 +1748,43 @@
       <c r="B13" s="2">
         <v>2952715.0</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="15"/>
+      <c r="D13" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="17"/>
+      <c r="F13" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="18"/>
+      <c r="H13" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>29</v>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>48</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="19"/>
+      <c r="L13" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="M13" s="15"/>
+      <c r="N13" s="7">
         <v>50.0</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
+      <c r="O13" s="19"/>
+      <c r="P13" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>33</v>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="7" t="s">
+        <v>49</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="S13" s="17"/>
+      <c r="T13" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U13" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U13" s="19"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1973,17 +1792,13 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>27</v>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
@@ -2009,81 +1824,57 @@
       <c r="B14" s="2">
         <v>2952716.0</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="15"/>
+      <c r="D14" s="24">
         <v>42412.0</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="17"/>
+      <c r="F14" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="18"/>
+      <c r="H14" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>29</v>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" s="19"/>
+      <c r="L14" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="M14" s="15"/>
+      <c r="N14" s="7">
         <v>100.0</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>22</v>
+      <c r="O14" s="19"/>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>33</v>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="7" t="s">
+        <v>51</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="S14" s="17"/>
+      <c r="T14" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="21"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC14" s="11" t="s">
-        <v>27</v>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE14" s="20"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
@@ -2106,66 +1897,46 @@
     </row>
     <row r="15">
       <c r="A15" s="2"/>
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>2952717.0</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="15"/>
+      <c r="D15" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="17"/>
+      <c r="F15" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="18"/>
+      <c r="H15" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>29</v>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7" t="s">
+        <v>52</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" s="19"/>
+      <c r="L15" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="15"/>
+      <c r="N15" s="7">
         <v>320.0</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>22</v>
+      <c r="O15" s="19"/>
+      <c r="P15" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>33</v>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="S15" s="17"/>
+      <c r="T15" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U15" s="19"/>
       <c r="V15" s="2"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -2173,17 +1944,13 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>27</v>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE15" s="20"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
@@ -2209,81 +1976,57 @@
       <c r="B16" s="2">
         <v>2952718.0</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="15"/>
+      <c r="D16" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="17"/>
+      <c r="F16" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="18"/>
+      <c r="H16" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>29</v>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="19"/>
+      <c r="L16" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="M16" s="15"/>
+      <c r="N16" s="7">
         <v>50.0</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>22</v>
+      <c r="O16" s="19"/>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>33</v>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="7" t="s">
+        <v>55</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="6">
+      <c r="S16" s="17"/>
+      <c r="T16" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V16" s="21"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC16" s="11" t="s">
-        <v>27</v>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE16" s="20"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
@@ -2309,63 +2052,43 @@
       <c r="B17" s="2">
         <v>2952719.0</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="15"/>
+      <c r="D17" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="17"/>
+      <c r="F17" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="18"/>
+      <c r="H17" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>29</v>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="19"/>
+      <c r="L17" s="7">
         <v>226559.0</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="M17" s="15"/>
+      <c r="N17" s="7">
         <v>100.0</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>22</v>
+      <c r="O17" s="19"/>
+      <c r="P17" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>33</v>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="S17" s="17"/>
+      <c r="T17" s="7">
         <v>16037.0</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U17" s="19"/>
       <c r="V17" s="2"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2373,17 +2096,13 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC17" s="11" t="s">
-        <v>27</v>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE17" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE17" s="20"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
@@ -2409,81 +2128,57 @@
       <c r="B18" s="2">
         <v>2952720.0</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="15"/>
+      <c r="D18" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="17"/>
+      <c r="F18" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="18"/>
+      <c r="H18" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>29</v>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7" t="s">
+        <v>58</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="K18" s="19"/>
+      <c r="L18" s="7">
         <v>226560.0</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="15"/>
+      <c r="N18" s="7">
         <v>100.0</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>22</v>
+      <c r="O18" s="19"/>
+      <c r="P18" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>33</v>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="7" t="s">
+        <v>58</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="S18" s="17"/>
+      <c r="T18" s="7">
         <v>21290.0</v>
       </c>
-      <c r="U18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V18" s="21"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="AC18" s="11" t="s">
-        <v>27</v>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE18" s="20"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -2505,67 +2200,47 @@
       <c r="AX18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2">
         <v>2952721.0</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="15"/>
+      <c r="D19" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="17"/>
+      <c r="F19" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19" s="18"/>
+      <c r="H19" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>29</v>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7" t="s">
+        <v>59</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="19"/>
+      <c r="L19" s="7">
         <v>226560.0</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="M19" s="15"/>
+      <c r="N19" s="7">
         <v>50.0</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
+      <c r="O19" s="19"/>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>33</v>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="7" t="s">
+        <v>60</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="S19" s="17"/>
+      <c r="T19" s="7">
         <v>16053.0</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U19" s="19"/>
       <c r="V19" s="2"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2573,17 +2248,13 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="AC19" s="11" t="s">
-        <v>27</v>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE19" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE19" s="20"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
@@ -2605,85 +2276,61 @@
       <c r="AX19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14">
         <v>2952722.0</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="15"/>
+      <c r="D20" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="17"/>
+      <c r="F20" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="18"/>
+      <c r="H20" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>29</v>
+      <c r="I20" s="15"/>
+      <c r="J20" s="7" t="s">
+        <v>62</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="19"/>
+      <c r="L20" s="7">
         <v>226560.0</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7">
         <v>50.0</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>22</v>
+      <c r="O20" s="19"/>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>33</v>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="7" t="s">
+        <v>60</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="S20" s="17"/>
+      <c r="T20" s="7">
         <v>16053.0</v>
       </c>
-      <c r="U20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V20" s="21"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="AC20" s="11" t="s">
-        <v>27</v>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE20" s="20"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -2705,67 +2352,47 @@
       <c r="AX20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14">
         <v>2952723.0</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="15"/>
+      <c r="D21" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="17"/>
+      <c r="F21" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="18"/>
+      <c r="H21" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>29</v>
+      <c r="I21" s="15"/>
+      <c r="J21" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="19"/>
+      <c r="L21" s="7">
         <v>226560.0</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="M21" s="15"/>
+      <c r="N21" s="7">
         <v>100.0</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
+      <c r="O21" s="19"/>
+      <c r="P21" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>33</v>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="S21" s="17"/>
+      <c r="T21" s="7">
         <v>16053.0</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U21" s="19"/>
       <c r="V21" s="2"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2773,17 +2400,13 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="AC21" s="11" t="s">
-        <v>27</v>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE21" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE21" s="20"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
@@ -2805,85 +2428,61 @@
       <c r="AX21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14">
         <v>2952724.0</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="15"/>
+      <c r="D22" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="17"/>
+      <c r="F22" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="18"/>
+      <c r="H22" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>29</v>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7" t="s">
+        <v>65</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="K22" s="19"/>
+      <c r="L22" s="7">
         <v>226560.0</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="M22" s="15"/>
+      <c r="N22" s="7">
         <v>450.0</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>22</v>
+      <c r="O22" s="19"/>
+      <c r="P22" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="P22" s="6" t="s">
-        <v>33</v>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="7" t="s">
+        <v>66</v>
       </c>
-      <c r="Q22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="6">
+      <c r="S22" s="17"/>
+      <c r="T22" s="7">
         <v>16053.0</v>
       </c>
-      <c r="U22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" s="21"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="AC22" s="11" t="s">
-        <v>27</v>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE22" s="20"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
@@ -2905,67 +2504,47 @@
       <c r="AX22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14">
         <v>2952725.0</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="C23" s="15"/>
       <c r="D23" s="2">
         <v>42412.0</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="2">
         <v>114867.0</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="G23" s="18"/>
       <c r="H23" s="2">
         <v>241992.0</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>29</v>
+      <c r="I23" s="15"/>
+      <c r="J23" s="2" t="s">
+        <v>67</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="K23" s="19"/>
       <c r="L23" s="2">
         <v>226560.0</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="M23" s="15"/>
       <c r="N23" s="2">
         <v>340.0</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
+      <c r="O23" s="19"/>
+      <c r="P23" s="2" t="s">
+        <v>31</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>33</v>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="2" t="s">
+        <v>68</v>
       </c>
-      <c r="Q23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S23" s="17"/>
       <c r="T23" s="2">
         <v>16053.0</v>
       </c>
-      <c r="U23" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="U23" s="19"/>
       <c r="V23" s="2"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2973,17 +2552,13 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>27</v>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="3" t="s">
+        <v>33</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
@@ -3005,29 +2580,29 @@
       <c r="AX23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -3057,31 +2632,26 @@
       <c r="AX24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -3111,35 +2681,26 @@
       <c r="AX25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -3169,35 +2730,26 @@
       <c r="AX26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -3227,35 +2779,26 @@
       <c r="AX27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -3285,35 +2828,26 @@
       <c r="AX28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -3343,35 +2877,26 @@
       <c r="AX29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -3401,35 +2926,26 @@
       <c r="AX30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -3459,35 +2975,26 @@
       <c r="AX31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -3517,35 +3024,26 @@
       <c r="AX32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -3575,35 +3073,26 @@
       <c r="AX33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -3633,35 +3122,26 @@
       <c r="AX34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -3691,35 +3171,26 @@
       <c r="AX35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -3749,35 +3220,26 @@
       <c r="AX36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -3807,35 +3269,26 @@
       <c r="AX37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -3865,35 +3318,26 @@
       <c r="AX38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -3923,35 +3367,26 @@
       <c r="AX39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -53486,296 +52921,504 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="SubjectPseudoIdentifier" ref="D2"/>
-    <hyperlink r:id="rId2" location="AdministrativeCase" ref="F2"/>
-    <hyperlink r:id="rId3" location="CareHandling" ref="H2"/>
-    <hyperlink r:id="rId4" ref="J2"/>
-    <hyperlink r:id="rId5" location="AssessmentResult" ref="L2"/>
-    <hyperlink r:id="rId6" location="double" ref="N2"/>
-    <hyperlink r:id="rId7" ref="P2"/>
-    <hyperlink r:id="rId8" ref="R2"/>
-    <hyperlink r:id="rId9" location="Performer" ref="T2"/>
-    <hyperlink r:id="rId10" ref="V2"/>
-    <hyperlink r:id="rId11" ref="Z2"/>
-    <hyperlink r:id="rId12" location="string" ref="AB2"/>
-    <hyperlink r:id="rId13" location="string" ref="AD2"/>
-    <hyperlink r:id="rId14" ref="C4"/>
-    <hyperlink r:id="rId15" ref="E4"/>
-    <hyperlink r:id="rId16" location="AdministrativeCase" ref="G4"/>
-    <hyperlink r:id="rId17" ref="I4"/>
-    <hyperlink r:id="rId18" location="dateTime" ref="K4"/>
-    <hyperlink r:id="rId19" ref="M4"/>
-    <hyperlink r:id="rId20" location="double" ref="O4"/>
-    <hyperlink r:id="rId21" ref="Q4"/>
-    <hyperlink r:id="rId22" location="dateTime" ref="S4"/>
-    <hyperlink r:id="rId23" location="Performer" ref="U4"/>
-    <hyperlink r:id="rId24" ref="V4"/>
-    <hyperlink r:id="rId25" location="string" ref="AC4"/>
-    <hyperlink r:id="rId26" location="string" ref="AE4"/>
-    <hyperlink r:id="rId27" ref="C5"/>
-    <hyperlink r:id="rId28" ref="E5"/>
-    <hyperlink r:id="rId29" location="AdministrativeCase" ref="G5"/>
-    <hyperlink r:id="rId30" ref="I5"/>
-    <hyperlink r:id="rId31" location="dateTime" ref="K5"/>
-    <hyperlink r:id="rId32" ref="M5"/>
-    <hyperlink r:id="rId33" location="double" ref="O5"/>
-    <hyperlink r:id="rId34" ref="Q5"/>
-    <hyperlink r:id="rId35" location="dateTime" ref="S5"/>
-    <hyperlink r:id="rId36" location="Performer" ref="U5"/>
-    <hyperlink r:id="rId37" location="string" ref="AC5"/>
-    <hyperlink r:id="rId38" location="string" ref="AE5"/>
-    <hyperlink r:id="rId39" ref="C6"/>
-    <hyperlink r:id="rId40" ref="E6"/>
-    <hyperlink r:id="rId41" location="AdministrativeCase" ref="G6"/>
-    <hyperlink r:id="rId42" ref="I6"/>
-    <hyperlink r:id="rId43" location="dateTime" ref="K6"/>
-    <hyperlink r:id="rId44" ref="M6"/>
-    <hyperlink r:id="rId45" location="double" ref="O6"/>
-    <hyperlink r:id="rId46" ref="Q6"/>
-    <hyperlink r:id="rId47" location="dateTime" ref="S6"/>
-    <hyperlink r:id="rId48" location="Performer" ref="U6"/>
-    <hyperlink r:id="rId49" ref="V6"/>
-    <hyperlink r:id="rId50" location="string" ref="AC6"/>
-    <hyperlink r:id="rId51" location="string" ref="AE6"/>
-    <hyperlink r:id="rId52" ref="C7"/>
-    <hyperlink r:id="rId53" ref="E7"/>
-    <hyperlink r:id="rId54" location="AdministrativeCase" ref="G7"/>
-    <hyperlink r:id="rId55" ref="I7"/>
-    <hyperlink r:id="rId56" location="dateTime" ref="K7"/>
-    <hyperlink r:id="rId57" ref="M7"/>
-    <hyperlink r:id="rId58" location="double" ref="O7"/>
-    <hyperlink r:id="rId59" ref="Q7"/>
-    <hyperlink r:id="rId60" location="dateTime" ref="S7"/>
-    <hyperlink r:id="rId61" location="Performer" ref="U7"/>
-    <hyperlink r:id="rId62" location="string" ref="AC7"/>
-    <hyperlink r:id="rId63" location="string" ref="AE7"/>
-    <hyperlink r:id="rId64" ref="C8"/>
-    <hyperlink r:id="rId65" ref="E8"/>
-    <hyperlink r:id="rId66" location="AdministrativeCase" ref="G8"/>
-    <hyperlink r:id="rId67" ref="I8"/>
-    <hyperlink r:id="rId68" location="dateTime" ref="K8"/>
-    <hyperlink r:id="rId69" ref="M8"/>
-    <hyperlink r:id="rId70" location="double" ref="O8"/>
-    <hyperlink r:id="rId71" ref="Q8"/>
-    <hyperlink r:id="rId72" location="dateTime" ref="S8"/>
-    <hyperlink r:id="rId73" location="Performer" ref="U8"/>
-    <hyperlink r:id="rId74" ref="V8"/>
-    <hyperlink r:id="rId75" location="string" ref="AC8"/>
-    <hyperlink r:id="rId76" location="string" ref="AE8"/>
-    <hyperlink r:id="rId77" ref="C9"/>
-    <hyperlink r:id="rId78" ref="E9"/>
-    <hyperlink r:id="rId79" location="AdministrativeCase" ref="G9"/>
-    <hyperlink r:id="rId80" ref="I9"/>
-    <hyperlink r:id="rId81" location="dateTime" ref="K9"/>
-    <hyperlink r:id="rId82" ref="M9"/>
-    <hyperlink r:id="rId83" location="double" ref="O9"/>
-    <hyperlink r:id="rId84" ref="Q9"/>
-    <hyperlink r:id="rId85" location="dateTime" ref="S9"/>
-    <hyperlink r:id="rId86" location="Performer" ref="U9"/>
-    <hyperlink r:id="rId87" location="string" ref="AC9"/>
-    <hyperlink r:id="rId88" location="string" ref="AE9"/>
-    <hyperlink r:id="rId89" ref="C10"/>
-    <hyperlink r:id="rId90" ref="E10"/>
-    <hyperlink r:id="rId91" location="AdministrativeCase" ref="G10"/>
-    <hyperlink r:id="rId92" ref="I10"/>
-    <hyperlink r:id="rId93" location="dateTime" ref="K10"/>
-    <hyperlink r:id="rId94" ref="M10"/>
-    <hyperlink r:id="rId95" location="double" ref="O10"/>
-    <hyperlink r:id="rId96" ref="Q10"/>
-    <hyperlink r:id="rId97" location="dateTime" ref="S10"/>
-    <hyperlink r:id="rId98" location="Performer" ref="U10"/>
-    <hyperlink r:id="rId99" ref="V10"/>
-    <hyperlink r:id="rId100" location="string" ref="AC10"/>
-    <hyperlink r:id="rId101" location="string" ref="AE10"/>
-    <hyperlink r:id="rId102" ref="C11"/>
-    <hyperlink r:id="rId103" ref="E11"/>
-    <hyperlink r:id="rId104" location="AdministrativeCase" ref="G11"/>
-    <hyperlink r:id="rId105" ref="I11"/>
-    <hyperlink r:id="rId106" location="dateTime" ref="K11"/>
-    <hyperlink r:id="rId107" ref="M11"/>
-    <hyperlink r:id="rId108" location="double" ref="O11"/>
-    <hyperlink r:id="rId109" ref="Q11"/>
-    <hyperlink r:id="rId110" location="dateTime" ref="S11"/>
-    <hyperlink r:id="rId111" location="Performer" ref="U11"/>
-    <hyperlink r:id="rId112" location="string" ref="AC11"/>
-    <hyperlink r:id="rId113" location="string" ref="AE11"/>
-    <hyperlink r:id="rId114" ref="C12"/>
-    <hyperlink r:id="rId115" ref="E12"/>
-    <hyperlink r:id="rId116" location="AdministrativeCase" ref="G12"/>
-    <hyperlink r:id="rId117" ref="I12"/>
-    <hyperlink r:id="rId118" location="dateTime" ref="K12"/>
-    <hyperlink r:id="rId119" ref="M12"/>
-    <hyperlink r:id="rId120" location="double" ref="O12"/>
-    <hyperlink r:id="rId121" ref="Q12"/>
-    <hyperlink r:id="rId122" location="dateTime" ref="S12"/>
-    <hyperlink r:id="rId123" location="Performer" ref="U12"/>
-    <hyperlink r:id="rId124" location="dateTime" ref="V12"/>
-    <hyperlink r:id="rId125" location="string" ref="AC12"/>
-    <hyperlink r:id="rId126" location="string" ref="AE12"/>
-    <hyperlink r:id="rId127" ref="C13"/>
-    <hyperlink r:id="rId128" ref="E13"/>
-    <hyperlink r:id="rId129" location="AdministrativeCase" ref="G13"/>
-    <hyperlink r:id="rId130" ref="I13"/>
-    <hyperlink r:id="rId131" location="dateTime" ref="K13"/>
-    <hyperlink r:id="rId132" ref="M13"/>
-    <hyperlink r:id="rId133" location="double" ref="O13"/>
-    <hyperlink r:id="rId134" ref="Q13"/>
-    <hyperlink r:id="rId135" location="dateTime" ref="S13"/>
-    <hyperlink r:id="rId136" location="Performer" ref="U13"/>
-    <hyperlink r:id="rId137" location="string" ref="AC13"/>
-    <hyperlink r:id="rId138" location="string" ref="AE13"/>
-    <hyperlink r:id="rId139" ref="C14"/>
-    <hyperlink r:id="rId140" ref="E14"/>
-    <hyperlink r:id="rId141" location="AdministrativeCase" ref="G14"/>
-    <hyperlink r:id="rId142" ref="I14"/>
-    <hyperlink r:id="rId143" location="dateTime" ref="K14"/>
-    <hyperlink r:id="rId144" ref="M14"/>
-    <hyperlink r:id="rId145" location="double" ref="O14"/>
-    <hyperlink r:id="rId146" ref="Q14"/>
-    <hyperlink r:id="rId147" location="dateTime" ref="S14"/>
-    <hyperlink r:id="rId148" location="Performer" ref="U14"/>
-    <hyperlink r:id="rId149" ref="V14"/>
-    <hyperlink r:id="rId150" location="string" ref="AC14"/>
-    <hyperlink r:id="rId151" location="string" ref="AE14"/>
-    <hyperlink r:id="rId152" ref="C15"/>
-    <hyperlink r:id="rId153" ref="E15"/>
-    <hyperlink r:id="rId154" location="AdministrativeCase" ref="G15"/>
-    <hyperlink r:id="rId155" ref="I15"/>
-    <hyperlink r:id="rId156" location="dateTime" ref="K15"/>
-    <hyperlink r:id="rId157" ref="M15"/>
-    <hyperlink r:id="rId158" location="double" ref="O15"/>
-    <hyperlink r:id="rId159" ref="Q15"/>
-    <hyperlink r:id="rId160" location="dateTime" ref="S15"/>
-    <hyperlink r:id="rId161" location="Performer" ref="U15"/>
-    <hyperlink r:id="rId162" location="string" ref="AC15"/>
-    <hyperlink r:id="rId163" location="string" ref="AE15"/>
-    <hyperlink r:id="rId164" ref="C16"/>
-    <hyperlink r:id="rId165" ref="E16"/>
-    <hyperlink r:id="rId166" location="AdministrativeCase" ref="G16"/>
-    <hyperlink r:id="rId167" ref="I16"/>
-    <hyperlink r:id="rId168" location="dateTime" ref="K16"/>
-    <hyperlink r:id="rId169" ref="M16"/>
-    <hyperlink r:id="rId170" location="double" ref="O16"/>
-    <hyperlink r:id="rId171" ref="Q16"/>
-    <hyperlink r:id="rId172" location="dateTime" ref="S16"/>
-    <hyperlink r:id="rId173" location="Performer" ref="U16"/>
-    <hyperlink r:id="rId174" location="double" ref="V16"/>
-    <hyperlink r:id="rId175" location="string" ref="AC16"/>
-    <hyperlink r:id="rId176" location="string" ref="AE16"/>
-    <hyperlink r:id="rId177" ref="C17"/>
-    <hyperlink r:id="rId178" ref="E17"/>
-    <hyperlink r:id="rId179" location="AdministrativeCase" ref="G17"/>
-    <hyperlink r:id="rId180" ref="I17"/>
-    <hyperlink r:id="rId181" location="dateTime" ref="K17"/>
-    <hyperlink r:id="rId182" ref="M17"/>
-    <hyperlink r:id="rId183" location="double" ref="O17"/>
-    <hyperlink r:id="rId184" ref="Q17"/>
-    <hyperlink r:id="rId185" location="dateTime" ref="S17"/>
-    <hyperlink r:id="rId186" location="Performer" ref="U17"/>
-    <hyperlink r:id="rId187" location="string" ref="AC17"/>
-    <hyperlink r:id="rId188" location="string" ref="AE17"/>
-    <hyperlink r:id="rId189" ref="C18"/>
-    <hyperlink r:id="rId190" ref="E18"/>
-    <hyperlink r:id="rId191" location="AdministrativeCase" ref="G18"/>
-    <hyperlink r:id="rId192" ref="I18"/>
-    <hyperlink r:id="rId193" location="dateTime" ref="K18"/>
-    <hyperlink r:id="rId194" ref="M18"/>
-    <hyperlink r:id="rId195" location="double" ref="O18"/>
-    <hyperlink r:id="rId196" ref="Q18"/>
-    <hyperlink r:id="rId197" location="dateTime" ref="S18"/>
-    <hyperlink r:id="rId198" location="Performer" ref="U18"/>
-    <hyperlink r:id="rId199" ref="V18"/>
-    <hyperlink r:id="rId200" location="string" ref="AC18"/>
-    <hyperlink r:id="rId201" location="string" ref="AE18"/>
-    <hyperlink r:id="rId202" ref="C19"/>
-    <hyperlink r:id="rId203" ref="E19"/>
-    <hyperlink r:id="rId204" location="AdministrativeCase" ref="G19"/>
-    <hyperlink r:id="rId205" ref="I19"/>
-    <hyperlink r:id="rId206" location="dateTime" ref="K19"/>
-    <hyperlink r:id="rId207" ref="M19"/>
-    <hyperlink r:id="rId208" location="double" ref="O19"/>
-    <hyperlink r:id="rId209" ref="Q19"/>
-    <hyperlink r:id="rId210" location="dateTime" ref="S19"/>
-    <hyperlink r:id="rId211" location="Performer" ref="U19"/>
-    <hyperlink r:id="rId212" location="string" ref="AC19"/>
-    <hyperlink r:id="rId213" location="string" ref="AE19"/>
-    <hyperlink r:id="rId214" ref="C20"/>
-    <hyperlink r:id="rId215" ref="E20"/>
-    <hyperlink r:id="rId216" location="AdministrativeCase" ref="G20"/>
-    <hyperlink r:id="rId217" ref="I20"/>
-    <hyperlink r:id="rId218" location="dateTime" ref="K20"/>
-    <hyperlink r:id="rId219" ref="M20"/>
-    <hyperlink r:id="rId220" location="double" ref="O20"/>
-    <hyperlink r:id="rId221" ref="Q20"/>
-    <hyperlink r:id="rId222" location="dateTime" ref="S20"/>
-    <hyperlink r:id="rId223" location="Performer" ref="U20"/>
-    <hyperlink r:id="rId224" location="dateTime" ref="V20"/>
-    <hyperlink r:id="rId225" location="string" ref="AC20"/>
-    <hyperlink r:id="rId226" location="string" ref="AE20"/>
-    <hyperlink r:id="rId227" ref="C21"/>
-    <hyperlink r:id="rId228" ref="E21"/>
-    <hyperlink r:id="rId229" location="AdministrativeCase" ref="G21"/>
-    <hyperlink r:id="rId230" ref="I21"/>
-    <hyperlink r:id="rId231" location="dateTime" ref="K21"/>
-    <hyperlink r:id="rId232" ref="M21"/>
-    <hyperlink r:id="rId233" location="double" ref="O21"/>
-    <hyperlink r:id="rId234" ref="Q21"/>
-    <hyperlink r:id="rId235" location="dateTime" ref="S21"/>
-    <hyperlink r:id="rId236" location="Performer" ref="U21"/>
-    <hyperlink r:id="rId237" location="string" ref="AC21"/>
-    <hyperlink r:id="rId238" location="string" ref="AE21"/>
-    <hyperlink r:id="rId239" ref="C22"/>
-    <hyperlink r:id="rId240" ref="E22"/>
-    <hyperlink r:id="rId241" location="AdministrativeCase" ref="G22"/>
-    <hyperlink r:id="rId242" ref="I22"/>
-    <hyperlink r:id="rId243" location="dateTime" ref="K22"/>
-    <hyperlink r:id="rId244" ref="M22"/>
-    <hyperlink r:id="rId245" location="double" ref="O22"/>
-    <hyperlink r:id="rId246" ref="Q22"/>
-    <hyperlink r:id="rId247" location="dateTime" ref="S22"/>
-    <hyperlink r:id="rId248" location="Performer" ref="U22"/>
-    <hyperlink r:id="rId249" ref="V22"/>
-    <hyperlink r:id="rId250" location="string" ref="AC22"/>
-    <hyperlink r:id="rId251" location="string" ref="AE22"/>
-    <hyperlink r:id="rId252" ref="C23"/>
-    <hyperlink r:id="rId253" ref="E23"/>
-    <hyperlink r:id="rId254" location="AdministrativeCase" ref="G23"/>
-    <hyperlink r:id="rId255" ref="I23"/>
-    <hyperlink r:id="rId256" location="dateTime" ref="K23"/>
-    <hyperlink r:id="rId257" ref="M23"/>
-    <hyperlink r:id="rId258" location="double" ref="O23"/>
-    <hyperlink r:id="rId259" ref="Q23"/>
-    <hyperlink r:id="rId260" location="dateTime" ref="S23"/>
-    <hyperlink r:id="rId261" location="Performer" ref="U23"/>
-    <hyperlink r:id="rId262" location="string" ref="AC23"/>
-    <hyperlink r:id="rId263" location="string" ref="AE23"/>
-    <hyperlink r:id="rId264" location="AssessmentEvent" ref="A27"/>
-    <hyperlink r:id="rId265" location="hasIdentifier" ref="C27"/>
-    <hyperlink r:id="rId266" location="AssessmentEvent" ref="A28"/>
-    <hyperlink r:id="rId267" location="hasIdentifier" ref="C28"/>
-    <hyperlink r:id="rId268" location="AssessmentEvent" ref="A29"/>
-    <hyperlink r:id="rId269" location="hasCareHandling" ref="C29"/>
-    <hyperlink r:id="rId270" location="AssessmentEvent" ref="A30"/>
-    <hyperlink r:id="rId271" location="Assessment" ref="B30"/>
-    <hyperlink r:id="rId272" location="hasAssessment" ref="C30"/>
-    <hyperlink r:id="rId273" location="AssessmentEvent" ref="A31"/>
-    <hyperlink r:id="rId274" location="hasEventDateTime" ref="C31"/>
-    <hyperlink r:id="rId275" location="AssessmentEvent" ref="A32"/>
-    <hyperlink r:id="rId276" location="hasPerformer" ref="C32"/>
-    <hyperlink r:id="rId277" location="hasCareHandling" ref="C33"/>
-    <hyperlink r:id="rId278" location="Assessment" ref="A34"/>
-    <hyperlink r:id="rId279" location="AssessmentResult" ref="B34"/>
-    <hyperlink r:id="rId280" location="hasResult" ref="C34"/>
-    <hyperlink r:id="rId281" location="hasDescription" ref="C35"/>
-    <hyperlink r:id="rId282" location="hasName" ref="C36"/>
-    <hyperlink r:id="rId283" location="hasDateTime" ref="C37"/>
-    <hyperlink r:id="rId284" location="Quantity" ref="B38"/>
-    <hyperlink r:id="rId285" location="hasQuantity" ref="C38"/>
-    <hyperlink r:id="rId286" location="Quantity" ref="A39"/>
-    <hyperlink r:id="rId287" location="hasValue" ref="C39"/>
-    <hyperlink r:id="rId288" location="Quantity" ref="A40"/>
-    <hyperlink r:id="rId289" location="hasUnit" ref="C40"/>
+    <hyperlink r:id="rId1" location="AssessmentEvent" ref="B2"/>
+    <hyperlink r:id="rId2" location="SubjectPseudoIdentifier" ref="D2"/>
+    <hyperlink r:id="rId3" location="AdministrativeCase" ref="F2"/>
+    <hyperlink r:id="rId4" location="CareHandling" ref="H2"/>
+    <hyperlink r:id="rId5" ref="J2"/>
+    <hyperlink r:id="rId6" location="AssessmentResult" ref="L2"/>
+    <hyperlink r:id="rId7" location="double" ref="N2"/>
+    <hyperlink r:id="rId8" ref="P2"/>
+    <hyperlink r:id="rId9" ref="R2"/>
+    <hyperlink r:id="rId10" location="Performer" ref="T2"/>
+    <hyperlink r:id="rId11" ref="V2"/>
+    <hyperlink r:id="rId12" ref="Z2"/>
+    <hyperlink r:id="rId13" location="string" ref="AB2"/>
+    <hyperlink r:id="rId14" location="string" ref="AD2"/>
+    <hyperlink r:id="rId15" ref="V4"/>
+    <hyperlink r:id="rId16" ref="V6"/>
+    <hyperlink r:id="rId17" ref="V8"/>
+    <hyperlink r:id="rId18" ref="V10"/>
+    <hyperlink r:id="rId19" location="dateTime" ref="V12"/>
+    <hyperlink r:id="rId20" ref="V14"/>
+    <hyperlink r:id="rId21" location="double" ref="V16"/>
+    <hyperlink r:id="rId22" ref="V18"/>
+    <hyperlink r:id="rId23" location="dateTime" ref="V20"/>
+    <hyperlink r:id="rId24" ref="V22"/>
   </hyperlinks>
-  <drawing r:id="rId290"/>
+  <drawing r:id="rId25"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="3" max="3" width="20.88"/>
+    <col customWidth="1" min="4" max="4" width="49.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasIdentifier" ref="D2"/>
+    <hyperlink r:id="rId2" location="hasCareHandling" ref="D3"/>
+    <hyperlink r:id="rId3" location="hasEventDateTime" ref="D4"/>
+    <hyperlink r:id="rId4" location="hasPerformer" ref="D5"/>
+    <hyperlink r:id="rId5" location="hasCareHandling" ref="D6"/>
+    <hyperlink r:id="rId6" location="hasResult" ref="D7"/>
+    <hyperlink r:id="rId7" location="hasDescription" ref="D8"/>
+    <hyperlink r:id="rId8" location="hasName" ref="D9"/>
+    <hyperlink r:id="rId9" location="hasDateTime" ref="D10"/>
+    <hyperlink r:id="rId10" location="hasValue" ref="D11"/>
+    <hyperlink r:id="rId11" location="hasUnit" ref="D12"/>
+  </hyperlinks>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="2" max="3" width="45.5"/>
+    <col customWidth="1" min="4" max="4" width="49.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasIdentifier" ref="D2"/>
+    <hyperlink r:id="rId2" location="hasCareHandling" ref="D3"/>
+    <hyperlink r:id="rId3" location="hasEventDateTime" ref="D4"/>
+    <hyperlink r:id="rId4" location="hasPerformer" ref="D5"/>
+    <hyperlink r:id="rId5" location="hasCareHandling" ref="D6"/>
+    <hyperlink r:id="rId6" location="Assessment" ref="C7"/>
+    <hyperlink r:id="rId7" location="hasAssessment" ref="D7"/>
+    <hyperlink r:id="rId8" location="Assessment" ref="B8"/>
+    <hyperlink r:id="rId9" location="hasResult" ref="D8"/>
+    <hyperlink r:id="rId10" location="hasDescription" ref="D9"/>
+    <hyperlink r:id="rId11" location="hasName" ref="D10"/>
+    <hyperlink r:id="rId12" location="hasDateTime" ref="D11"/>
+    <hyperlink r:id="rId13" location="Quantity" ref="C12"/>
+    <hyperlink r:id="rId14" location="hasQuantity" ref="D12"/>
+    <hyperlink r:id="rId15" location="Quantity" ref="B13"/>
+    <hyperlink r:id="rId16" location="hasValue" ref="D13"/>
+    <hyperlink r:id="rId17" location="Quantity" ref="B14"/>
+    <hyperlink r:id="rId18" location="hasUnit" ref="D14"/>
+  </hyperlinks>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>